--- a/docs/StructureDefinition-VAEMLabReport.xlsx
+++ b/docs/StructureDefinition-VAEMLabReport.xlsx
@@ -346,7 +346,7 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>referencedDocument/display</t>
+    <t>referencedDocument-display</t>
   </si>
   <si>
     <t>TIU REFERENCE DATE/TIME - EM</t>
@@ -1237,7 +1237,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.7109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="30.62890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
